--- a/Old Order Summary Acc/Metro Knitting/Metro.xlsx
+++ b/Old Order Summary Acc/Metro Knitting/Metro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>21-29048</t>
+  </si>
+  <si>
+    <t>13.09.21</t>
+  </si>
+  <si>
+    <t>16.09.21</t>
+  </si>
+  <si>
+    <t>terry</t>
   </si>
 </sst>
 </file>
@@ -774,8 +783,8 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,10 +2913,18 @@
       <c r="H76" s="4"/>
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="9"/>
+      <c r="K76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1706</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N76" s="9">
+        <v>1386</v>
+      </c>
       <c r="O76" s="9"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="4"/>
@@ -2950,7 +2967,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="11">
         <f>SUM(N74:N77)</f>
-        <v>1526</v>
+        <v>2912</v>
       </c>
       <c r="O78" s="11">
         <f>SUM(O74:O77)</f>
@@ -2958,7 +2975,7 @@
       </c>
       <c r="P78" s="15">
         <f>N78-J78+O78</f>
-        <v>-3474</v>
+        <v>-2088</v>
       </c>
       <c r="Q78" s="4"/>
     </row>
@@ -3143,10 +3160,18 @@
       <c r="H85" s="4"/>
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="11"/>
+      <c r="K85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L85" s="12">
+        <v>1719</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N85" s="11">
+        <v>1046</v>
+      </c>
       <c r="O85" s="11"/>
       <c r="P85" s="15"/>
       <c r="Q85" s="4"/>
@@ -3227,7 +3252,7 @@
       <c r="M89" s="12"/>
       <c r="N89" s="11">
         <f>SUM(N84:N88)</f>
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="O89" s="11">
         <f>SUM(O84:O88)</f>
@@ -3235,7 +3260,7 @@
       </c>
       <c r="P89" s="15">
         <f>N89-J89+O89</f>
-        <v>-4500</v>
+        <v>-3454</v>
       </c>
       <c r="Q89" s="4"/>
     </row>
@@ -3538,7 +3563,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="11">
         <f>+N95+N89+N83+N78+N65+N73+N58+N50+N42+N23+N33+N17</f>
-        <v>25952</v>
+        <v>28384</v>
       </c>
       <c r="O101" s="11">
         <f>+O95+O89+O83+O78+O65+O73+O58+O50+O42+O23+O33+O17</f>
@@ -3546,14 +3571,14 @@
       </c>
       <c r="P101" s="19">
         <f>SUM(P7:P100)</f>
-        <v>-12189.449999999999</v>
+        <v>-9757.4500000000007</v>
       </c>
       <c r="Q101" s="4"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N102" s="17">
         <f>J101-N101</f>
-        <v>12189.449999999997</v>
+        <v>9757.4499999999971</v>
       </c>
       <c r="O102" s="17"/>
     </row>

--- a/Old Order Summary Acc/Metro Knitting/Metro.xlsx
+++ b/Old Order Summary Acc/Metro Knitting/Metro.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Metro" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metro!$B$6:$P$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metro!$B$6:$P$93</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -262,18 +262,9 @@
     <t>Terry</t>
   </si>
   <si>
-    <t>M19683</t>
-  </si>
-  <si>
-    <t>30/ Com.</t>
-  </si>
-  <si>
     <t>09.09.21</t>
   </si>
   <si>
-    <t>21-28751</t>
-  </si>
-  <si>
     <t>M19639</t>
   </si>
   <si>
@@ -317,6 +308,9 @@
   </si>
   <si>
     <t>terry</t>
+  </si>
+  <si>
+    <t>19.09.21</t>
   </si>
 </sst>
 </file>
@@ -780,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N85" sqref="N85"/>
+      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2881,7 @@
       <c r="I75" s="8"/>
       <c r="J75" s="9"/>
       <c r="K75" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L75" s="8">
         <v>1696</v>
@@ -2914,7 +2908,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
       <c r="K76" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L76" s="8">
         <v>1706</v>
@@ -2984,31 +2978,31 @@
         <v>19</v>
       </c>
       <c r="B79" s="7">
-        <v>2000709998</v>
+        <v>2000726342</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F79" s="8">
-        <v>3078</v>
+        <v>3255</v>
       </c>
       <c r="G79" s="9">
-        <v>1585.41</v>
+        <v>4500</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="J79" s="9">
-        <v>1585.41</v>
+        <v>4500</v>
       </c>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
@@ -3030,11 +3024,19 @@
       <c r="G80" s="9"/>
       <c r="H80" s="4"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="11"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L80" s="12">
+        <v>1719</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N80" s="11">
+        <v>1046</v>
+      </c>
       <c r="O80" s="11"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="4"/>
@@ -3049,11 +3051,19 @@
       <c r="G81" s="9"/>
       <c r="H81" s="4"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="11"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L81" s="12">
+        <v>1732</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N81" s="11">
+        <v>898</v>
+      </c>
       <c r="O81" s="11"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="4"/>
@@ -3068,7 +3078,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="4"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="11"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -3087,106 +3097,114 @@
       <c r="G83" s="9"/>
       <c r="H83" s="4"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="11">
-        <f>SUM(J79:J82)</f>
-        <v>1585.41</v>
-      </c>
+      <c r="J83" s="9"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
-      <c r="N83" s="11">
-        <f>SUM(N79:N82)</f>
-        <v>0</v>
-      </c>
-      <c r="O83" s="11">
-        <f>SUM(O79:O82)</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="15">
-        <f>N83-J83+O83</f>
-        <v>-1585.41</v>
-      </c>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="15"/>
       <c r="Q83" s="4"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="7">
-        <v>2000726342</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" s="8">
-        <v>3255</v>
-      </c>
-      <c r="G84" s="9">
-        <v>4500</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J84" s="9">
+      <c r="A84" s="4"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="11">
+        <f>SUM(J79:J83)</f>
         <v>4500</v>
       </c>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="11">
+        <f>SUM(N79:N83)</f>
+        <v>1944</v>
+      </c>
+      <c r="O84" s="11">
+        <f>SUM(O79:O83)</f>
         <v>0</v>
       </c>
-      <c r="O84" s="11"/>
-      <c r="P84" s="15"/>
+      <c r="P84" s="15">
+        <f>N84-J84+O84</f>
+        <v>-2556</v>
+      </c>
       <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
+      <c r="A85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="7">
+        <v>119106</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L85" s="12">
-        <v>1719</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="F85" s="8">
+        <v>10690</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1175</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="9">
+        <v>1175</v>
+      </c>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
       <c r="N85" s="11">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="15"/>
       <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
+      <c r="A86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="7">
+        <v>119106</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="9"/>
+      <c r="F86" s="8">
+        <v>7538</v>
+      </c>
+      <c r="G86" s="9">
+        <v>300</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86" s="9">
+        <v>300</v>
+      </c>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
@@ -3196,16 +3214,34 @@
       <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
+      <c r="A87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="7">
+        <v>119106</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="9"/>
+      <c r="F87" s="8">
+        <v>2103</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1062.6500000000001</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" s="9">
+        <v>1062.6500000000001</v>
+      </c>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
@@ -3224,7 +3260,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
@@ -3243,95 +3279,57 @@
       <c r="G89" s="9"/>
       <c r="H89" s="4"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="11">
-        <f>SUM(J84:J88)</f>
-        <v>4500</v>
-      </c>
+      <c r="J89" s="11"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="11">
-        <f>SUM(N84:N88)</f>
-        <v>1046</v>
-      </c>
-      <c r="O89" s="11">
-        <f>SUM(O84:O88)</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f>N89-J89+O89</f>
-        <v>-3454</v>
-      </c>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="15"/>
       <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="7">
-        <v>119106</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="8">
-        <v>10690</v>
-      </c>
-      <c r="G90" s="9">
-        <v>1175</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J90" s="9">
-        <v>1175</v>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="11">
+        <f>SUM(J85:J89)</f>
+        <v>2537.65</v>
       </c>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="11">
+        <f>SUM(N85:N89)</f>
         <v>0</v>
       </c>
-      <c r="O90" s="11"/>
-      <c r="P90" s="15"/>
+      <c r="O90" s="11">
+        <f>SUM(O85:O89)</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f>N90-J90+O90</f>
+        <v>-2537.65</v>
+      </c>
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="7">
-        <v>119106</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="8">
-        <v>7538</v>
-      </c>
-      <c r="G91" s="9">
-        <v>300</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J91" s="9">
-        <v>300</v>
-      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="11"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
@@ -3341,34 +3339,16 @@
       <c r="Q91" s="4"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="7">
-        <v>119106</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="8">
-        <v>2103</v>
-      </c>
-      <c r="G92" s="9">
-        <v>1062.6500000000001</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J92" s="9">
-        <v>1062.6500000000001</v>
-      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
@@ -3387,21 +3367,21 @@
       <c r="G93" s="9"/>
       <c r="H93" s="4"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="15"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="4"/>
@@ -3412,181 +3392,74 @@
       <c r="M94" s="12"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
-      <c r="P94" s="15"/>
+      <c r="P94" s="16"/>
       <c r="Q94" s="4"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="E95" s="14"/>
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="4"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="11">
-        <f>SUM(J90:J94)</f>
-        <v>2537.65</v>
-      </c>
+      <c r="J95" s="11"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
-      <c r="N95" s="11">
-        <f>SUM(N90:N94)</f>
-        <v>0</v>
-      </c>
-      <c r="O95" s="11">
-        <f>SUM(O90:O94)</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="15">
-        <f>N95-J95+O95</f>
-        <v>-2537.65</v>
-      </c>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="16"/>
       <c r="Q95" s="4"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
+      <c r="G96" s="11">
+        <f>SUM(G7:G95)</f>
+        <v>36556.04</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="11" t="e">
+        <f>+J90+J84+#REF!+J78+J65+J73+J58+J50+J42+J23+J33+J17</f>
+        <v>#REF!</v>
+      </c>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="15"/>
+      <c r="N96" s="11" t="e">
+        <f>+N90+N84+#REF!+N78+N65+N73+N58+N50+N42+N23+N33+N17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O96" s="11" t="e">
+        <f>+O90+O84+#REF!+O78+O65+O73+O58+O50+O42+O23+O33+O17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P96" s="19">
+        <f>SUM(P7:P95)</f>
+        <v>-7274.0399999999991</v>
+      </c>
       <c r="Q96" s="4"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="4"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="4"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="4"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="11">
-        <f>SUM(G7:G100)</f>
-        <v>38141.450000000004</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="11">
-        <f>+J95+J89+J83+J78+J65+J73+J58+J50+J42+J23+J33+J17</f>
-        <v>38141.449999999997</v>
-      </c>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="11">
-        <f>+N95+N89+N83+N78+N65+N73+N58+N50+N42+N23+N33+N17</f>
-        <v>28384</v>
-      </c>
-      <c r="O101" s="11">
-        <f>+O95+O89+O83+O78+O65+O73+O58+O50+O42+O23+O33+O17</f>
-        <v>0</v>
-      </c>
-      <c r="P101" s="19">
-        <f>SUM(P7:P100)</f>
-        <v>-9757.4500000000007</v>
-      </c>
-      <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N102" s="17">
-        <f>J101-N101</f>
-        <v>9757.4499999999971</v>
-      </c>
-      <c r="O102" s="17"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P103" s="17"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P107" s="17"/>
+    <row r="97" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N97" s="17" t="e">
+        <f>J96-N96</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O97" s="17"/>
+    </row>
+    <row r="98" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="P98" s="17"/>
+    </row>
+    <row r="102" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="P102" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Old Order Summary Acc/Metro Knitting/Metro.xlsx
+++ b/Old Order Summary Acc/Metro Knitting/Metro.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Metro" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metro!$B$6:$P$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metro!$B$6:$P$95</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>19.09.21</t>
+  </si>
+  <si>
+    <t>23.09.21</t>
   </si>
 </sst>
 </file>
@@ -774,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+      <pane ySplit="6" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,10 +2937,18 @@
       <c r="H77" s="4"/>
       <c r="I77" s="8"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="9"/>
+      <c r="K77" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L77" s="8">
+        <v>1756</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N77" s="9">
+        <v>355</v>
+      </c>
       <c r="O77" s="9"/>
       <c r="P77" s="15"/>
       <c r="Q77" s="4"/>
@@ -2952,65 +2963,31 @@
       <c r="G78" s="9"/>
       <c r="H78" s="4"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="11">
-        <f>SUM(J74:J77)</f>
-        <v>5000</v>
-      </c>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="11">
-        <f>SUM(N74:N77)</f>
-        <v>2912</v>
-      </c>
-      <c r="O78" s="11">
-        <f>SUM(O74:O77)</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="15">
-        <f>N78-J78+O78</f>
-        <v>-2088</v>
-      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="15"/>
       <c r="Q78" s="4"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="7">
-        <v>2000726342</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="8">
-        <v>3255</v>
-      </c>
-      <c r="G79" s="9">
-        <v>4500</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J79" s="9">
-        <v>4500</v>
-      </c>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="11">
-        <v>0</v>
-      </c>
-      <c r="O79" s="11"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="15"/>
       <c r="Q79" s="4"/>
     </row>
@@ -3024,45 +3001,63 @@
       <c r="G80" s="9"/>
       <c r="H80" s="4"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L80" s="12">
-        <v>1719</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="J80" s="11">
+        <f>SUM(J74:J79)</f>
+        <v>5000</v>
+      </c>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
       <c r="N80" s="11">
-        <v>1046</v>
-      </c>
-      <c r="O80" s="11"/>
-      <c r="P80" s="15"/>
+        <f>SUM(N74:N79)</f>
+        <v>3267</v>
+      </c>
+      <c r="O80" s="11">
+        <f>SUM(O74:O79)</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="15">
+        <f>N80-J80+O80</f>
+        <v>-1733</v>
+      </c>
       <c r="Q80" s="4"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L81" s="12">
-        <v>1732</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2000726342</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="8">
+        <v>3255</v>
+      </c>
+      <c r="G81" s="9">
+        <v>4500</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="9">
+        <v>4500</v>
+      </c>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
       <c r="N81" s="11">
-        <v>898</v>
+        <v>0</v>
       </c>
       <c r="O81" s="11"/>
       <c r="P81" s="15"/>
@@ -3079,10 +3074,18 @@
       <c r="H82" s="4"/>
       <c r="I82" s="8"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="11"/>
+      <c r="K82" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L82" s="12">
+        <v>1719</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N82" s="11">
+        <v>1046</v>
+      </c>
       <c r="O82" s="11"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="4"/>
@@ -3098,10 +3101,18 @@
       <c r="H83" s="4"/>
       <c r="I83" s="8"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="11"/>
+      <c r="K83" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" s="12">
+        <v>1732</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N83" s="11">
+        <v>898</v>
+      </c>
       <c r="O83" s="11"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="4"/>
@@ -3116,101 +3127,71 @@
       <c r="G84" s="9"/>
       <c r="H84" s="4"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="11">
-        <f>SUM(J79:J83)</f>
-        <v>4500</v>
-      </c>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L84" s="12">
+        <v>1756</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="N84" s="11">
-        <f>SUM(N79:N83)</f>
-        <v>1944</v>
-      </c>
-      <c r="O84" s="11">
-        <f>SUM(O79:O83)</f>
-        <v>0</v>
-      </c>
-      <c r="P84" s="15">
-        <f>N84-J84+O84</f>
-        <v>-2556</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="O84" s="11"/>
+      <c r="P84" s="15"/>
       <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="7">
-        <v>119106</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="8">
-        <v>10690</v>
-      </c>
-      <c r="G85" s="9">
-        <v>1175</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J85" s="9">
-        <v>1175</v>
-      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="11">
-        <v>0</v>
-      </c>
+      <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="15"/>
       <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="7">
-        <v>119106</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8">
-        <v>7538</v>
-      </c>
-      <c r="G86" s="9">
-        <v>300</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J86" s="9">
-        <v>300</v>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="11">
+        <f>SUM(J81:J85)</f>
+        <v>4500</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="15"/>
+      <c r="N86" s="11">
+        <f>SUM(N81:N85)</f>
+        <v>3054</v>
+      </c>
+      <c r="O86" s="11">
+        <f>SUM(O81:O85)</f>
+        <v>0</v>
+      </c>
+      <c r="P86" s="15">
+        <f>N86-J86+O86</f>
+        <v>-1446</v>
+      </c>
       <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -3224,43 +3205,63 @@
         <v>119106</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8">
-        <v>2103</v>
+        <v>10690</v>
       </c>
       <c r="G87" s="9">
-        <v>1062.6500000000001</v>
+        <v>1175</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J87" s="9">
-        <v>1062.6500000000001</v>
+        <v>1175</v>
       </c>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="11"/>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
       <c r="O87" s="11"/>
       <c r="P87" s="15"/>
       <c r="Q87" s="4"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
+      <c r="A88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="7">
+        <v>119106</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="11"/>
+      <c r="F88" s="8">
+        <v>7538</v>
+      </c>
+      <c r="G88" s="9">
+        <v>300</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J88" s="9">
+        <v>300</v>
+      </c>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
@@ -3270,16 +3271,34 @@
       <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
+      <c r="A89" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="7">
+        <v>119106</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="11"/>
+      <c r="F89" s="8">
+        <v>2103</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1062.6500000000001</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J89" s="9">
+        <v>1062.6500000000001</v>
+      </c>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
@@ -3298,25 +3317,13 @@
       <c r="G90" s="9"/>
       <c r="H90" s="4"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="11">
-        <f>SUM(J85:J89)</f>
-        <v>2537.65</v>
-      </c>
+      <c r="J90" s="11"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="11">
-        <f>SUM(N85:N89)</f>
-        <v>0</v>
-      </c>
-      <c r="O90" s="11">
-        <f>SUM(O85:O89)</f>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
-        <f>N90-J90+O90</f>
-        <v>-2537.65</v>
-      </c>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="15"/>
       <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -3348,13 +3355,25 @@
       <c r="G92" s="9"/>
       <c r="H92" s="4"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="11"/>
+      <c r="J92" s="11">
+        <f>SUM(J87:J91)</f>
+        <v>2537.65</v>
+      </c>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="15"/>
+      <c r="N92" s="11">
+        <f>SUM(N87:N91)</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="11">
+        <f>SUM(O87:O91)</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="15">
+        <f>N92-J92+O92</f>
+        <v>-2537.65</v>
+      </c>
       <c r="Q92" s="4"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -3367,21 +3386,21 @@
       <c r="G93" s="9"/>
       <c r="H93" s="4"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="4"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="15"/>
       <c r="Q93" s="4"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="14"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="4"/>
@@ -3392,26 +3411,26 @@
       <c r="M94" s="12"/>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
-      <c r="P94" s="16"/>
+      <c r="P94" s="15"/>
       <c r="Q94" s="4"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="14"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="4"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="16"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -3421,45 +3440,83 @@
       <c r="D96" s="8"/>
       <c r="E96" s="14"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="11">
-        <f>SUM(G7:G95)</f>
-        <v>36556.04</v>
-      </c>
+      <c r="G96" s="9"/>
       <c r="H96" s="4"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="11" t="e">
-        <f>+J90+J84+#REF!+J78+J65+J73+J58+J50+J42+J23+J33+J17</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J96" s="11"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
-      <c r="N96" s="11" t="e">
-        <f>+N90+N84+#REF!+N78+N65+N73+N58+N50+N42+N23+N33+N17</f>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="11">
+        <f>SUM(G7:G97)</f>
+        <v>36556.04</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="11" t="e">
+        <f>+J92+J86+#REF!+J80+J65+J73+J58+J50+J42+J23+J33+J17</f>
         <v>#REF!</v>
       </c>
-      <c r="O96" s="11" t="e">
-        <f>+O90+O84+#REF!+O78+O65+O73+O58+O50+O42+O23+O33+O17</f>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="11" t="e">
+        <f>+N92+N86+#REF!+N80+N65+N73+N58+N50+N42+N23+N33+N17</f>
         <v>#REF!</v>
       </c>
-      <c r="P96" s="19">
-        <f>SUM(P7:P95)</f>
-        <v>-7274.0399999999991</v>
-      </c>
-      <c r="Q96" s="4"/>
-    </row>
-    <row r="97" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N97" s="17" t="e">
-        <f>J96-N96</f>
+      <c r="O98" s="11" t="e">
+        <f>+O92+O86+#REF!+O80+O65+O73+O58+O50+O42+O23+O33+O17</f>
         <v>#REF!</v>
       </c>
-      <c r="O97" s="17"/>
-    </row>
-    <row r="98" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="P98" s="17"/>
-    </row>
-    <row r="102" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="P102" s="17"/>
+      <c r="P98" s="19">
+        <f>SUM(P7:P97)</f>
+        <v>-5809.04</v>
+      </c>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N99" s="17" t="e">
+        <f>J98-N98</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O99" s="17"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P100" s="17"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P104" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
